--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20616" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>TODO</t>
   </si>
@@ -117,28 +118,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="6">
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -163,31 +165,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC000"/>
           <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -470,7 +447,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,6 +504,9 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -551,15 +531,15 @@
     <sortCondition descending="1" sortBy="cellColor" ref="B2:B11" dxfId="3"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B161">
-    <cfRule type="containsBlanks" dxfId="7" priority="4">
+    <cfRule type="containsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="In-Progress">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="In-Progress">
       <formula>NOT(ISERROR(SEARCH("In-Progress",B2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -447,7 +446,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -489,6 +488,9 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -503,9 +505,6 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>TODO</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Camera Setting</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,6 +523,11 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20616" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>TODO</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Camera Setting</t>
+  </si>
+  <si>
+    <t>Need tree</t>
+  </si>
+  <si>
+    <t>Menu</t>
   </si>
 </sst>
 </file>
@@ -446,19 +452,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -466,7 +472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -474,7 +480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -482,52 +488,72 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>TODO</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Menu</t>
+  </si>
+  <si>
+    <t>Block</t>
   </si>
 </sst>
 </file>
@@ -126,7 +129,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -151,6 +154,38 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -455,7 +490,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,6 +582,9 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -558,27 +596,30 @@
     </row>
   </sheetData>
   <sortState ref="A2:B11">
-    <sortCondition sortBy="cellColor" ref="B2:B11" dxfId="5"/>
-    <sortCondition descending="1" sortBy="cellColor" ref="B2:B11" dxfId="4"/>
+    <sortCondition sortBy="cellColor" ref="B2:B11" dxfId="9"/>
+    <sortCondition descending="1" sortBy="cellColor" ref="B2:B11" dxfId="8"/>
     <sortCondition ref="A2:A11"/>
-    <sortCondition descending="1" sortBy="cellColor" ref="B2:B11" dxfId="3"/>
+    <sortCondition descending="1" sortBy="cellColor" ref="B2:B11" dxfId="7"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",B1)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",B1)))</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B161">
-    <cfRule type="containsBlanks" dxfId="1" priority="4">
+  <conditionalFormatting sqref="B2:B178">
+    <cfRule type="containsBlanks" dxfId="6" priority="5">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="In-Progress">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="In-Progress">
       <formula>NOT(ISERROR(SEARCH("In-Progress",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B44 B46:B88 B90:B132 B134:B161" xr:uid="{635C6AA0-1830-4452-BC80-F2DF5794A63A}">
-      <formula1>"Done,In-Progress"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B178" xr:uid="{BF359048-D471-476F-8CD1-51864BF136FE}">
+      <formula1>"Done,In-Progress,Block"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="3870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>TODO</t>
   </si>
@@ -129,7 +130,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -151,13 +152,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -168,24 +162,6 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -489,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,11 +521,17 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -596,24 +578,24 @@
     </row>
   </sheetData>
   <sortState ref="A2:B11">
-    <sortCondition sortBy="cellColor" ref="B2:B11" dxfId="9"/>
-    <sortCondition descending="1" sortBy="cellColor" ref="B2:B11" dxfId="8"/>
+    <sortCondition sortBy="cellColor" ref="B2:B11" dxfId="6"/>
+    <sortCondition descending="1" sortBy="cellColor" ref="B2:B11" dxfId="5"/>
     <sortCondition ref="A2:A11"/>
-    <sortCondition descending="1" sortBy="cellColor" ref="B2:B11" dxfId="7"/>
+    <sortCondition descending="1" sortBy="cellColor" ref="B2:B11" dxfId="4"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B178">
-    <cfRule type="containsBlanks" dxfId="6" priority="5">
+    <cfRule type="containsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="In-Progress">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="In-Progress">
       <formula>NOT(ISERROR(SEARCH("In-Progress",B2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="3870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14055" windowHeight="4890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>TODO</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Block</t>
+  </si>
+  <si>
+    <t>Tree</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -530,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -573,6 +576,14 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14055" windowHeight="4890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>TODO</t>
   </si>
@@ -73,10 +73,10 @@
     <t>Menu</t>
   </si>
   <si>
-    <t>Block</t>
-  </si>
-  <si>
     <t>Tree</t>
+  </si>
+  <si>
+    <t>Sun,Moon</t>
   </si>
 </sst>
 </file>
@@ -466,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -581,9 +581,17 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20592" windowHeight="10152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -469,16 +468,16 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="46.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -486,7 +485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -494,7 +493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -502,12 +501,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -515,12 +514,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -528,7 +527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -536,7 +535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -547,7 +546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -555,7 +554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -563,7 +562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -571,7 +570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -579,7 +578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -587,12 +586,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
